--- a/doc/sample/test_sample_input/stub_sample_data.xlsx
+++ b/doc/sample/test_sample_input/stub_sample_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="122">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -599,6 +599,110 @@
   </si>
   <si>
     <t>sample_function_008</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値：なし/引数：なし</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値：あり/引数：なし</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値：あり(ポインタ)/引数：なし</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値：あり/引数：あり</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値：あり/引数：あり(シングルポインタ/input)</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値：あり/引数：あり(シングルポインタ/output)</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値：あり/引数：あり(ダブルポインタ/input)</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値：あり/引数：あり(ダブルポインタ/output)</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1193,9 +1297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1204,10 +1310,12 @@
     <col min="4" max="4" width="21.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.125" style="1"/>
+    <col min="7" max="7" width="2.125" style="1"/>
+    <col min="8" max="8" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>46</v>
       </c>
@@ -1216,7 +1324,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -1231,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="14">
         <v>1</v>
@@ -1245,8 +1353,11 @@
       <c r="F4" s="14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -1259,8 +1370,11 @@
       <c r="F5" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1273,8 +1387,11 @@
       <c r="F6" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -1287,8 +1404,11 @@
       <c r="F7" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>5</v>
       </c>
@@ -1301,8 +1421,11 @@
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -1315,8 +1438,11 @@
       <c r="F9" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>7</v>
       </c>
@@ -1329,8 +1455,11 @@
       <c r="F10" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -1343,26 +1472,29 @@
       <c r="F11" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
